--- a/examples/RTN/4week_disagg/data.xlsx
+++ b/examples/RTN/4week_disagg/data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27628"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\rtn_scheduling-main\rtn_jl\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aramanuj\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2C3C2A2-5BB8-4A51-9A49-E745FAB7D7DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC613812-4BA7-452E-938A-7C8A98755C30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tasks" sheetId="1" r:id="rId1"/>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="528" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="529" uniqueCount="71">
   <si>
     <t>R</t>
   </si>
@@ -583,15 +583,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C23"/>
+  <dimension ref="A1:D23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -601,8 +601,11 @@
       <c r="C1" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -612,8 +615,11 @@
       <c r="C2" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -623,8 +629,11 @@
       <c r="C3" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>16</v>
       </c>
@@ -634,8 +643,11 @@
       <c r="C4" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>22</v>
       </c>
@@ -645,8 +657,11 @@
       <c r="C5" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -656,8 +671,11 @@
       <c r="C6" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -667,8 +685,11 @@
       <c r="C7" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -678,8 +699,11 @@
       <c r="C8" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -689,8 +713,11 @@
       <c r="C9" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -700,8 +727,11 @@
       <c r="C10" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>12</v>
       </c>
@@ -711,8 +741,11 @@
       <c r="C11" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -722,8 +755,11 @@
       <c r="C12" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>11</v>
       </c>
@@ -733,8 +769,11 @@
       <c r="C13" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>17</v>
       </c>
@@ -744,8 +783,11 @@
       <c r="C14" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>18</v>
       </c>
@@ -755,8 +797,11 @@
       <c r="C15" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>19</v>
       </c>
@@ -766,8 +811,11 @@
       <c r="C16" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>13</v>
       </c>
@@ -777,8 +825,11 @@
       <c r="C17" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>14</v>
       </c>
@@ -788,8 +839,11 @@
       <c r="C18" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>15</v>
       </c>
@@ -799,8 +853,11 @@
       <c r="C19" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>23</v>
       </c>
@@ -810,8 +867,11 @@
       <c r="C20" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>20</v>
       </c>
@@ -821,8 +881,11 @@
       <c r="C21" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>21</v>
       </c>
@@ -832,8 +895,11 @@
       <c r="C22" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>24</v>
       </c>
@@ -842,6 +908,9 @@
       </c>
       <c r="C23" t="s">
         <v>67</v>
+      </c>
+      <c r="D23">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -857,8 +926,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{071950A6-8371-48CC-802C-9294F7A46380}">
   <dimension ref="A1:H29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E33" sqref="E33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/examples/RTN/4week_disagg/data.xlsx
+++ b/examples/RTN/4week_disagg/data.xlsx
@@ -5,26 +5,24 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aramanuj\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://purdue0-my.sharepoint.com/personal/aramanuj_purdue_edu/Documents/ECNDATA/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC613812-4BA7-452E-938A-7C8A98755C30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{D53172AA-BF82-4196-8F13-9DEC3ABC22CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2D065D3B-C443-4D89-AA81-5D72994FC876}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tasks" sheetId="1" r:id="rId1"/>
     <sheet name="Resources" sheetId="2" r:id="rId2"/>
     <sheet name="Network" sheetId="3" r:id="rId3"/>
-    <sheet name="Supply" sheetId="4" r:id="rId4"/>
-    <sheet name="Supply_1" sheetId="5" r:id="rId5"/>
-    <sheet name="Supply_2" sheetId="6" r:id="rId6"/>
-    <sheet name="Supply_3" sheetId="7" r:id="rId7"/>
-    <sheet name="Supply_4" sheetId="8" r:id="rId8"/>
+    <sheet name="Supply_1" sheetId="5" r:id="rId4"/>
+    <sheet name="Supply_2" sheetId="6" r:id="rId5"/>
+    <sheet name="Supply_3" sheetId="7" r:id="rId6"/>
+    <sheet name="Supply_4" sheetId="8" r:id="rId7"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Network!$A$1:$C$68</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Supply!$A$1:$A$241</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -47,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="529" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="398" uniqueCount="71">
   <si>
     <t>R</t>
   </si>
@@ -583,15 +581,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D23"/>
+  <dimension ref="A1:C23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -601,11 +599,8 @@
       <c r="C1" t="s">
         <v>57</v>
       </c>
-      <c r="D1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -615,25 +610,19 @@
       <c r="C2" t="s">
         <v>58</v>
       </c>
-      <c r="D2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>4</v>
       </c>
       <c r="B3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C3" t="s">
         <v>58</v>
       </c>
-      <c r="D3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>16</v>
       </c>
@@ -643,25 +632,19 @@
       <c r="C4" t="s">
         <v>59</v>
       </c>
-      <c r="D4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>22</v>
       </c>
       <c r="B5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C5" t="s">
         <v>59</v>
       </c>
-      <c r="D5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -671,25 +654,19 @@
       <c r="C6" t="s">
         <v>60</v>
       </c>
-      <c r="D6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>6</v>
       </c>
       <c r="B7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C7" t="s">
         <v>60</v>
       </c>
-      <c r="D7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -699,25 +676,19 @@
       <c r="C8" t="s">
         <v>61</v>
       </c>
-      <c r="D8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>8</v>
       </c>
       <c r="B9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C9" t="s">
         <v>61</v>
       </c>
-      <c r="D9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -727,25 +698,19 @@
       <c r="C10" t="s">
         <v>62</v>
       </c>
-      <c r="D10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>12</v>
       </c>
       <c r="B11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C11" t="s">
         <v>62</v>
       </c>
-      <c r="D11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -755,25 +720,19 @@
       <c r="C12" t="s">
         <v>63</v>
       </c>
-      <c r="D12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C13" t="s">
         <v>70</v>
       </c>
-      <c r="D13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>17</v>
       </c>
@@ -783,25 +742,19 @@
       <c r="C14" t="s">
         <v>64</v>
       </c>
-      <c r="D14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>18</v>
       </c>
       <c r="B15">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C15" t="s">
         <v>64</v>
       </c>
-      <c r="D15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>19</v>
       </c>
@@ -811,25 +764,19 @@
       <c r="C16" t="s">
         <v>65</v>
       </c>
-      <c r="D16">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>13</v>
       </c>
       <c r="B17">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C17" t="s">
         <v>66</v>
       </c>
-      <c r="D17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>14</v>
       </c>
@@ -839,25 +786,19 @@
       <c r="C18" t="s">
         <v>66</v>
       </c>
-      <c r="D18">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>15</v>
       </c>
       <c r="B19">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C19" t="s">
         <v>70</v>
       </c>
-      <c r="D19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>23</v>
       </c>
@@ -867,25 +808,19 @@
       <c r="C20" t="s">
         <v>67</v>
       </c>
-      <c r="D20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>20</v>
       </c>
       <c r="B21">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C21" t="s">
         <v>63</v>
       </c>
-      <c r="D21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>21</v>
       </c>
@@ -895,22 +830,16 @@
       <c r="C22" t="s">
         <v>65</v>
       </c>
-      <c r="D22">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>24</v>
       </c>
       <c r="B23">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C23" t="s">
         <v>67</v>
-      </c>
-      <c r="D23">
-        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -926,8 +855,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{071950A6-8371-48CC-802C-9294F7A46380}">
   <dimension ref="A1:H29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E33" sqref="E33"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -978,7 +907,7 @@
         <v>53</v>
       </c>
       <c r="G2">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H2">
         <v>40</v>
@@ -1004,8 +933,7 @@
         <v>53</v>
       </c>
       <c r="G3">
-        <f>IF(EXACT(F3,"Feed"),5,IF(EXACT(F3,"Product"),7,IF(EXACT(F3,"Vessel"),20,0)))</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H3">
         <v>40</v>
@@ -1031,7 +959,7 @@
         <v>54</v>
       </c>
       <c r="G4">
-        <f t="shared" ref="G4:G18" si="0">IF(EXACT(F4,"Feed"),5,IF(EXACT(F4,"Product"),7,IF(EXACT(F4,"Vessel"),20,0)))</f>
+        <f t="shared" ref="G4:G16" si="0">IF(EXACT(F4,"Feed"),5,IF(EXACT(F4,"Product"),7,IF(EXACT(F4,"Vessel"),20,0)))</f>
         <v>0</v>
       </c>
       <c r="H4">
@@ -1404,8 +1332,7 @@
         <v>53</v>
       </c>
       <c r="G18">
-        <f t="shared" si="0"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H18">
         <v>40</v>
@@ -1707,8 +1634,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{324C579D-1EE4-4FE0-9E54-FCEF134C9F48}">
   <dimension ref="A1:C67"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1743,7 +1670,7 @@
         <v>4</v>
       </c>
       <c r="C3">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
@@ -2459,1911 +2386,10 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9EC0739E-F6BE-4329-91C5-5DD71291C6A6}">
-  <dimension ref="A1:W36"/>
-  <sheetViews>
-    <sheetView topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="W1" sqref="W1:W22"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>49</v>
-      </c>
-      <c r="B1" t="s">
-        <v>68</v>
-      </c>
-      <c r="C1" t="s">
-        <v>50</v>
-      </c>
-      <c r="R1" t="s">
-        <v>1</v>
-      </c>
-      <c r="S1" t="s">
-        <v>2</v>
-      </c>
-      <c r="T1" t="s">
-        <v>57</v>
-      </c>
-      <c r="V1" t="s">
-        <v>3</v>
-      </c>
-      <c r="W1" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>35</v>
-      </c>
-      <c r="B2">
-        <v>60</v>
-      </c>
-      <c r="C2">
-        <v>1</v>
-      </c>
-      <c r="E2">
-        <v>120</v>
-      </c>
-      <c r="F2">
-        <v>1</v>
-      </c>
-      <c r="G2">
-        <v>1</v>
-      </c>
-      <c r="H2">
-        <v>1</v>
-      </c>
-      <c r="I2">
-        <v>2</v>
-      </c>
-      <c r="K2">
-        <f>E2*F2</f>
-        <v>120</v>
-      </c>
-      <c r="L2">
-        <f>E2*G2</f>
-        <v>120</v>
-      </c>
-      <c r="M2">
-        <f>E2*H2</f>
-        <v>120</v>
-      </c>
-      <c r="N2">
-        <f>E2*I2</f>
-        <v>240</v>
-      </c>
-      <c r="R2" t="s">
-        <v>3</v>
-      </c>
-      <c r="S2">
-        <v>1</v>
-      </c>
-      <c r="T2" t="s">
-        <v>58</v>
-      </c>
-      <c r="V2" t="s">
-        <v>4</v>
-      </c>
-      <c r="W2" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>38</v>
-      </c>
-      <c r="B3">
-        <v>60</v>
-      </c>
-      <c r="C3">
-        <v>1</v>
-      </c>
-      <c r="E3">
-        <v>110</v>
-      </c>
-      <c r="F3">
-        <v>1</v>
-      </c>
-      <c r="G3">
-        <v>1</v>
-      </c>
-      <c r="H3">
-        <v>2</v>
-      </c>
-      <c r="I3">
-        <v>1</v>
-      </c>
-      <c r="K3">
-        <f t="shared" ref="K3:K36" si="0">E3*F3</f>
-        <v>110</v>
-      </c>
-      <c r="L3">
-        <f t="shared" ref="L3:L36" si="1">E3*G3</f>
-        <v>110</v>
-      </c>
-      <c r="M3">
-        <f t="shared" ref="M3:M36" si="2">E3*H3</f>
-        <v>220</v>
-      </c>
-      <c r="N3">
-        <f t="shared" ref="N3:N36" si="3">E3*I3</f>
-        <v>110</v>
-      </c>
-      <c r="R3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S3">
-        <v>1</v>
-      </c>
-      <c r="T3" t="s">
-        <v>58</v>
-      </c>
-      <c r="V3" t="s">
-        <v>16</v>
-      </c>
-      <c r="W3" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>41</v>
-      </c>
-      <c r="B4">
-        <v>60</v>
-      </c>
-      <c r="C4">
-        <v>1</v>
-      </c>
-      <c r="E4">
-        <v>140</v>
-      </c>
-      <c r="F4">
-        <v>1</v>
-      </c>
-      <c r="G4">
-        <v>1</v>
-      </c>
-      <c r="H4">
-        <v>1</v>
-      </c>
-      <c r="I4">
-        <v>2</v>
-      </c>
-      <c r="K4">
-        <f t="shared" si="0"/>
-        <v>140</v>
-      </c>
-      <c r="L4">
-        <f t="shared" si="1"/>
-        <v>140</v>
-      </c>
-      <c r="M4">
-        <f t="shared" si="2"/>
-        <v>140</v>
-      </c>
-      <c r="N4">
-        <f t="shared" si="3"/>
-        <v>280</v>
-      </c>
-      <c r="R4" t="s">
-        <v>5</v>
-      </c>
-      <c r="S4">
-        <v>1</v>
-      </c>
-      <c r="T4" t="s">
-        <v>58</v>
-      </c>
-      <c r="V4" t="s">
-        <v>22</v>
-      </c>
-      <c r="W4" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>42</v>
-      </c>
-      <c r="B5">
-        <v>60</v>
-      </c>
-      <c r="C5">
-        <v>1</v>
-      </c>
-      <c r="E5">
-        <v>125</v>
-      </c>
-      <c r="F5">
-        <v>1</v>
-      </c>
-      <c r="G5">
-        <v>1</v>
-      </c>
-      <c r="H5">
-        <v>2</v>
-      </c>
-      <c r="I5">
-        <v>1</v>
-      </c>
-      <c r="K5">
-        <f t="shared" si="0"/>
-        <v>125</v>
-      </c>
-      <c r="L5">
-        <f t="shared" si="1"/>
-        <v>125</v>
-      </c>
-      <c r="M5">
-        <f t="shared" si="2"/>
-        <v>250</v>
-      </c>
-      <c r="N5">
-        <f t="shared" si="3"/>
-        <v>125</v>
-      </c>
-      <c r="R5" t="s">
-        <v>23</v>
-      </c>
-      <c r="S5">
-        <v>1</v>
-      </c>
-      <c r="T5" t="s">
-        <v>59</v>
-      </c>
-      <c r="V5" t="s">
-        <v>5</v>
-      </c>
-      <c r="W5" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>45</v>
-      </c>
-      <c r="B6">
-        <v>60</v>
-      </c>
-      <c r="C6">
-        <v>1</v>
-      </c>
-      <c r="E6">
-        <v>130</v>
-      </c>
-      <c r="F6">
-        <v>1</v>
-      </c>
-      <c r="G6">
-        <v>1</v>
-      </c>
-      <c r="H6">
-        <v>1</v>
-      </c>
-      <c r="I6">
-        <v>2</v>
-      </c>
-      <c r="K6">
-        <f t="shared" si="0"/>
-        <v>130</v>
-      </c>
-      <c r="L6">
-        <f t="shared" si="1"/>
-        <v>130</v>
-      </c>
-      <c r="M6">
-        <f t="shared" si="2"/>
-        <v>130</v>
-      </c>
-      <c r="N6">
-        <f t="shared" si="3"/>
-        <v>260</v>
-      </c>
-      <c r="R6" t="s">
-        <v>20</v>
-      </c>
-      <c r="S6">
-        <v>1</v>
-      </c>
-      <c r="T6" t="s">
-        <v>67</v>
-      </c>
-      <c r="V6" t="s">
-        <v>6</v>
-      </c>
-      <c r="W6" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>35</v>
-      </c>
-      <c r="B7">
-        <f>B2*1.5</f>
-        <v>90</v>
-      </c>
-      <c r="C7">
-        <v>2</v>
-      </c>
-      <c r="E7">
-        <v>120</v>
-      </c>
-      <c r="F7">
-        <f>F2*1.25</f>
-        <v>1.25</v>
-      </c>
-      <c r="G7">
-        <v>1.5</v>
-      </c>
-      <c r="H7">
-        <v>3</v>
-      </c>
-      <c r="I7">
-        <v>1</v>
-      </c>
-      <c r="K7">
-        <f t="shared" si="0"/>
-        <v>150</v>
-      </c>
-      <c r="L7">
-        <f t="shared" si="1"/>
-        <v>180</v>
-      </c>
-      <c r="M7">
-        <f t="shared" si="2"/>
-        <v>360</v>
-      </c>
-      <c r="N7">
-        <f t="shared" si="3"/>
-        <v>120</v>
-      </c>
-      <c r="R7" t="s">
-        <v>24</v>
-      </c>
-      <c r="S7">
-        <v>1</v>
-      </c>
-      <c r="T7" t="s">
-        <v>67</v>
-      </c>
-      <c r="V7" t="s">
-        <v>7</v>
-      </c>
-      <c r="W7" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>38</v>
-      </c>
-      <c r="B8">
-        <f t="shared" ref="B8:B36" si="4">B3*1.5</f>
-        <v>90</v>
-      </c>
-      <c r="C8">
-        <v>2</v>
-      </c>
-      <c r="E8">
-        <v>110</v>
-      </c>
-      <c r="F8">
-        <f t="shared" ref="F8:F36" si="5">F3*1.25</f>
-        <v>1.25</v>
-      </c>
-      <c r="G8">
-        <v>1.5</v>
-      </c>
-      <c r="H8">
-        <v>1</v>
-      </c>
-      <c r="I8">
-        <v>3</v>
-      </c>
-      <c r="K8">
-        <f t="shared" si="0"/>
-        <v>137.5</v>
-      </c>
-      <c r="L8">
-        <f t="shared" si="1"/>
-        <v>165</v>
-      </c>
-      <c r="M8">
-        <f t="shared" si="2"/>
-        <v>110</v>
-      </c>
-      <c r="N8">
-        <f t="shared" si="3"/>
-        <v>330</v>
-      </c>
-      <c r="R8" t="s">
-        <v>16</v>
-      </c>
-      <c r="S8">
-        <v>1</v>
-      </c>
-      <c r="T8" t="s">
-        <v>59</v>
-      </c>
-      <c r="V8" t="s">
-        <v>8</v>
-      </c>
-      <c r="W8" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>41</v>
-      </c>
-      <c r="B9">
-        <f t="shared" si="4"/>
-        <v>90</v>
-      </c>
-      <c r="C9">
-        <v>2</v>
-      </c>
-      <c r="E9">
-        <v>140</v>
-      </c>
-      <c r="F9">
-        <f t="shared" si="5"/>
-        <v>1.25</v>
-      </c>
-      <c r="G9">
-        <v>1.5</v>
-      </c>
-      <c r="H9">
-        <v>3</v>
-      </c>
-      <c r="I9">
-        <v>1</v>
-      </c>
-      <c r="K9">
-        <f t="shared" si="0"/>
-        <v>175</v>
-      </c>
-      <c r="L9">
-        <f t="shared" si="1"/>
-        <v>210</v>
-      </c>
-      <c r="M9">
-        <f t="shared" si="2"/>
-        <v>420</v>
-      </c>
-      <c r="N9">
-        <f t="shared" si="3"/>
-        <v>140</v>
-      </c>
-      <c r="R9" t="s">
-        <v>22</v>
-      </c>
-      <c r="S9">
-        <v>1</v>
-      </c>
-      <c r="T9" t="s">
-        <v>59</v>
-      </c>
-      <c r="V9" t="s">
-        <v>9</v>
-      </c>
-      <c r="W9" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>42</v>
-      </c>
-      <c r="B10">
-        <f t="shared" si="4"/>
-        <v>90</v>
-      </c>
-      <c r="C10">
-        <v>2</v>
-      </c>
-      <c r="E10">
-        <v>125</v>
-      </c>
-      <c r="F10">
-        <f t="shared" si="5"/>
-        <v>1.25</v>
-      </c>
-      <c r="G10">
-        <v>1.5</v>
-      </c>
-      <c r="H10">
-        <v>1</v>
-      </c>
-      <c r="I10">
-        <v>3</v>
-      </c>
-      <c r="K10">
-        <f t="shared" si="0"/>
-        <v>156.25</v>
-      </c>
-      <c r="L10">
-        <f t="shared" si="1"/>
-        <v>187.5</v>
-      </c>
-      <c r="M10">
-        <f t="shared" si="2"/>
-        <v>125</v>
-      </c>
-      <c r="N10">
-        <f t="shared" si="3"/>
-        <v>375</v>
-      </c>
-      <c r="R10" t="s">
-        <v>6</v>
-      </c>
-      <c r="S10">
-        <v>1</v>
-      </c>
-      <c r="T10" t="s">
-        <v>60</v>
-      </c>
-      <c r="V10" t="s">
-        <v>12</v>
-      </c>
-      <c r="W10" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>45</v>
-      </c>
-      <c r="B11">
-        <f t="shared" si="4"/>
-        <v>90</v>
-      </c>
-      <c r="C11">
-        <v>2</v>
-      </c>
-      <c r="E11">
-        <v>130</v>
-      </c>
-      <c r="F11">
-        <f t="shared" si="5"/>
-        <v>1.25</v>
-      </c>
-      <c r="G11">
-        <v>1.5</v>
-      </c>
-      <c r="H11">
-        <v>3</v>
-      </c>
-      <c r="I11">
-        <v>1</v>
-      </c>
-      <c r="K11">
-        <f t="shared" si="0"/>
-        <v>162.5</v>
-      </c>
-      <c r="L11">
-        <f t="shared" si="1"/>
-        <v>195</v>
-      </c>
-      <c r="M11">
-        <f t="shared" si="2"/>
-        <v>390</v>
-      </c>
-      <c r="N11">
-        <f t="shared" si="3"/>
-        <v>130</v>
-      </c>
-      <c r="R11" t="s">
-        <v>7</v>
-      </c>
-      <c r="S11">
-        <v>1</v>
-      </c>
-      <c r="T11" t="s">
-        <v>60</v>
-      </c>
-      <c r="V11" t="s">
-        <v>10</v>
-      </c>
-      <c r="W11" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>35</v>
-      </c>
-      <c r="B12">
-        <f t="shared" si="4"/>
-        <v>135</v>
-      </c>
-      <c r="C12">
-        <v>3</v>
-      </c>
-      <c r="E12">
-        <v>120</v>
-      </c>
-      <c r="F12">
-        <f t="shared" si="5"/>
-        <v>1.5625</v>
-      </c>
-      <c r="G12">
-        <v>3</v>
-      </c>
-      <c r="H12">
-        <v>2</v>
-      </c>
-      <c r="I12">
-        <v>4</v>
-      </c>
-      <c r="K12">
-        <f t="shared" si="0"/>
-        <v>187.5</v>
-      </c>
-      <c r="L12">
-        <f t="shared" si="1"/>
-        <v>360</v>
-      </c>
-      <c r="M12">
-        <f t="shared" si="2"/>
-        <v>240</v>
-      </c>
-      <c r="N12">
-        <f t="shared" si="3"/>
-        <v>480</v>
-      </c>
-      <c r="R12" t="s">
-        <v>8</v>
-      </c>
-      <c r="S12">
-        <v>1</v>
-      </c>
-      <c r="T12" t="s">
-        <v>61</v>
-      </c>
-      <c r="V12" t="s">
-        <v>11</v>
-      </c>
-      <c r="W12" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>38</v>
-      </c>
-      <c r="B13">
-        <f t="shared" si="4"/>
-        <v>135</v>
-      </c>
-      <c r="C13">
-        <v>3</v>
-      </c>
-      <c r="E13">
-        <v>110</v>
-      </c>
-      <c r="F13">
-        <f t="shared" si="5"/>
-        <v>1.5625</v>
-      </c>
-      <c r="G13">
-        <v>3</v>
-      </c>
-      <c r="H13">
-        <v>4</v>
-      </c>
-      <c r="I13">
-        <v>2</v>
-      </c>
-      <c r="K13">
-        <f t="shared" si="0"/>
-        <v>171.875</v>
-      </c>
-      <c r="L13">
-        <f t="shared" si="1"/>
-        <v>330</v>
-      </c>
-      <c r="M13">
-        <f t="shared" si="2"/>
-        <v>440</v>
-      </c>
-      <c r="N13">
-        <f t="shared" si="3"/>
-        <v>220</v>
-      </c>
-      <c r="R13" t="s">
-        <v>13</v>
-      </c>
-      <c r="S13">
-        <v>1</v>
-      </c>
-      <c r="T13" t="s">
-        <v>61</v>
-      </c>
-      <c r="V13" t="s">
-        <v>17</v>
-      </c>
-      <c r="W13" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>41</v>
-      </c>
-      <c r="B14">
-        <f t="shared" si="4"/>
-        <v>135</v>
-      </c>
-      <c r="C14">
-        <v>3</v>
-      </c>
-      <c r="E14">
-        <v>140</v>
-      </c>
-      <c r="F14">
-        <f t="shared" si="5"/>
-        <v>1.5625</v>
-      </c>
-      <c r="G14">
-        <v>3</v>
-      </c>
-      <c r="H14">
-        <v>2</v>
-      </c>
-      <c r="I14">
-        <v>4</v>
-      </c>
-      <c r="K14">
-        <f t="shared" si="0"/>
-        <v>218.75</v>
-      </c>
-      <c r="L14">
-        <f t="shared" si="1"/>
-        <v>420</v>
-      </c>
-      <c r="M14">
-        <f t="shared" si="2"/>
-        <v>280</v>
-      </c>
-      <c r="N14">
-        <f t="shared" si="3"/>
-        <v>560</v>
-      </c>
-      <c r="R14" t="s">
-        <v>9</v>
-      </c>
-      <c r="S14">
-        <v>1</v>
-      </c>
-      <c r="T14" t="s">
-        <v>62</v>
-      </c>
-      <c r="V14" t="s">
-        <v>18</v>
-      </c>
-      <c r="W14" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>42</v>
-      </c>
-      <c r="B15">
-        <f t="shared" si="4"/>
-        <v>135</v>
-      </c>
-      <c r="C15">
-        <v>3</v>
-      </c>
-      <c r="E15">
-        <v>125</v>
-      </c>
-      <c r="F15">
-        <f t="shared" si="5"/>
-        <v>1.5625</v>
-      </c>
-      <c r="G15">
-        <v>3</v>
-      </c>
-      <c r="H15">
-        <v>4</v>
-      </c>
-      <c r="I15">
-        <v>2</v>
-      </c>
-      <c r="K15">
-        <f t="shared" si="0"/>
-        <v>195.3125</v>
-      </c>
-      <c r="L15">
-        <f t="shared" si="1"/>
-        <v>375</v>
-      </c>
-      <c r="M15">
-        <f t="shared" si="2"/>
-        <v>500</v>
-      </c>
-      <c r="N15">
-        <f t="shared" si="3"/>
-        <v>250</v>
-      </c>
-      <c r="R15" t="s">
-        <v>12</v>
-      </c>
-      <c r="S15">
-        <v>1</v>
-      </c>
-      <c r="T15" t="s">
-        <v>62</v>
-      </c>
-      <c r="V15" t="s">
-        <v>19</v>
-      </c>
-      <c r="W15" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>45</v>
-      </c>
-      <c r="B16">
-        <f t="shared" si="4"/>
-        <v>135</v>
-      </c>
-      <c r="C16">
-        <v>3</v>
-      </c>
-      <c r="E16">
-        <v>130</v>
-      </c>
-      <c r="F16">
-        <f t="shared" si="5"/>
-        <v>1.5625</v>
-      </c>
-      <c r="G16">
-        <v>3</v>
-      </c>
-      <c r="H16">
-        <v>2</v>
-      </c>
-      <c r="I16">
-        <v>4</v>
-      </c>
-      <c r="K16">
-        <f t="shared" si="0"/>
-        <v>203.125</v>
-      </c>
-      <c r="L16">
-        <f t="shared" si="1"/>
-        <v>390</v>
-      </c>
-      <c r="M16">
-        <f t="shared" si="2"/>
-        <v>260</v>
-      </c>
-      <c r="N16">
-        <f t="shared" si="3"/>
-        <v>520</v>
-      </c>
-      <c r="R16" t="s">
-        <v>10</v>
-      </c>
-      <c r="S16">
-        <v>1</v>
-      </c>
-      <c r="T16" t="s">
-        <v>63</v>
-      </c>
-      <c r="V16" t="s">
-        <v>13</v>
-      </c>
-      <c r="W16" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="17" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
-        <v>35</v>
-      </c>
-      <c r="B17">
-        <f t="shared" si="4"/>
-        <v>202.5</v>
-      </c>
-      <c r="C17">
-        <v>4</v>
-      </c>
-      <c r="E17">
-        <v>120</v>
-      </c>
-      <c r="F17">
-        <f t="shared" si="5"/>
-        <v>1.953125</v>
-      </c>
-      <c r="G17">
-        <v>4</v>
-      </c>
-      <c r="H17">
-        <v>4</v>
-      </c>
-      <c r="I17">
-        <v>1.5</v>
-      </c>
-      <c r="K17">
-        <f t="shared" si="0"/>
-        <v>234.375</v>
-      </c>
-      <c r="L17">
-        <f t="shared" si="1"/>
-        <v>480</v>
-      </c>
-      <c r="M17">
-        <f t="shared" si="2"/>
-        <v>480</v>
-      </c>
-      <c r="N17">
-        <f t="shared" si="3"/>
-        <v>180</v>
-      </c>
-      <c r="R17" t="s">
-        <v>11</v>
-      </c>
-      <c r="S17">
-        <v>1</v>
-      </c>
-      <c r="T17" t="s">
-        <v>63</v>
-      </c>
-      <c r="V17" t="s">
-        <v>14</v>
-      </c>
-      <c r="W17" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="18" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
-        <v>38</v>
-      </c>
-      <c r="B18">
-        <f t="shared" si="4"/>
-        <v>202.5</v>
-      </c>
-      <c r="C18">
-        <v>4</v>
-      </c>
-      <c r="E18">
-        <v>110</v>
-      </c>
-      <c r="F18">
-        <f t="shared" si="5"/>
-        <v>1.953125</v>
-      </c>
-      <c r="G18">
-        <v>4</v>
-      </c>
-      <c r="H18">
-        <v>1.5</v>
-      </c>
-      <c r="I18">
-        <v>4</v>
-      </c>
-      <c r="K18">
-        <f t="shared" si="0"/>
-        <v>214.84375</v>
-      </c>
-      <c r="L18">
-        <f t="shared" si="1"/>
-        <v>440</v>
-      </c>
-      <c r="M18">
-        <f t="shared" si="2"/>
-        <v>165</v>
-      </c>
-      <c r="N18">
-        <f t="shared" si="3"/>
-        <v>440</v>
-      </c>
-      <c r="R18" t="s">
-        <v>18</v>
-      </c>
-      <c r="S18">
-        <v>1</v>
-      </c>
-      <c r="T18" t="s">
-        <v>64</v>
-      </c>
-      <c r="V18" t="s">
-        <v>15</v>
-      </c>
-      <c r="W18" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="19" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>41</v>
-      </c>
-      <c r="B19">
-        <f t="shared" si="4"/>
-        <v>202.5</v>
-      </c>
-      <c r="C19">
-        <v>4</v>
-      </c>
-      <c r="E19">
-        <v>140</v>
-      </c>
-      <c r="F19">
-        <f t="shared" si="5"/>
-        <v>1.953125</v>
-      </c>
-      <c r="G19">
-        <v>4</v>
-      </c>
-      <c r="H19">
-        <v>4</v>
-      </c>
-      <c r="I19">
-        <v>1.5</v>
-      </c>
-      <c r="K19">
-        <f t="shared" si="0"/>
-        <v>273.4375</v>
-      </c>
-      <c r="L19">
-        <f t="shared" si="1"/>
-        <v>560</v>
-      </c>
-      <c r="M19">
-        <f t="shared" si="2"/>
-        <v>560</v>
-      </c>
-      <c r="N19">
-        <f t="shared" si="3"/>
-        <v>210</v>
-      </c>
-      <c r="R19" t="s">
-        <v>14</v>
-      </c>
-      <c r="S19">
-        <v>1</v>
-      </c>
-      <c r="T19" t="s">
-        <v>64</v>
-      </c>
-      <c r="V19" t="s">
-        <v>23</v>
-      </c>
-      <c r="W19" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="20" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
-        <v>42</v>
-      </c>
-      <c r="B20">
-        <f t="shared" si="4"/>
-        <v>202.5</v>
-      </c>
-      <c r="C20">
-        <v>4</v>
-      </c>
-      <c r="E20">
-        <v>125</v>
-      </c>
-      <c r="F20">
-        <f t="shared" si="5"/>
-        <v>1.953125</v>
-      </c>
-      <c r="G20">
-        <v>4</v>
-      </c>
-      <c r="H20">
-        <v>1.5</v>
-      </c>
-      <c r="I20">
-        <v>4</v>
-      </c>
-      <c r="K20">
-        <f t="shared" si="0"/>
-        <v>244.140625</v>
-      </c>
-      <c r="L20">
-        <f t="shared" si="1"/>
-        <v>500</v>
-      </c>
-      <c r="M20">
-        <f t="shared" si="2"/>
-        <v>187.5</v>
-      </c>
-      <c r="N20">
-        <f t="shared" si="3"/>
-        <v>500</v>
-      </c>
-      <c r="R20" t="s">
-        <v>17</v>
-      </c>
-      <c r="S20">
-        <v>1</v>
-      </c>
-      <c r="T20" t="s">
-        <v>65</v>
-      </c>
-      <c r="V20" t="s">
-        <v>20</v>
-      </c>
-      <c r="W20" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="21" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
-        <v>45</v>
-      </c>
-      <c r="B21">
-        <f t="shared" si="4"/>
-        <v>202.5</v>
-      </c>
-      <c r="C21">
-        <v>4</v>
-      </c>
-      <c r="E21">
-        <v>130</v>
-      </c>
-      <c r="F21">
-        <f t="shared" si="5"/>
-        <v>1.953125</v>
-      </c>
-      <c r="G21">
-        <v>4</v>
-      </c>
-      <c r="H21">
-        <v>4</v>
-      </c>
-      <c r="I21">
-        <v>1.5</v>
-      </c>
-      <c r="K21">
-        <f t="shared" si="0"/>
-        <v>253.90625</v>
-      </c>
-      <c r="L21">
-        <f t="shared" si="1"/>
-        <v>520</v>
-      </c>
-      <c r="M21">
-        <f t="shared" si="2"/>
-        <v>520</v>
-      </c>
-      <c r="N21">
-        <f t="shared" si="3"/>
-        <v>195</v>
-      </c>
-      <c r="R21" t="s">
-        <v>19</v>
-      </c>
-      <c r="S21">
-        <v>1</v>
-      </c>
-      <c r="T21" t="s">
-        <v>65</v>
-      </c>
-      <c r="V21" t="s">
-        <v>21</v>
-      </c>
-      <c r="W21" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="22" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>35</v>
-      </c>
-      <c r="B22">
-        <f t="shared" si="4"/>
-        <v>303.75</v>
-      </c>
-      <c r="C22">
-        <v>5</v>
-      </c>
-      <c r="E22">
-        <v>120</v>
-      </c>
-      <c r="F22">
-        <f t="shared" si="5"/>
-        <v>2.44140625</v>
-      </c>
-      <c r="G22">
-        <v>3</v>
-      </c>
-      <c r="H22">
-        <v>1.5</v>
-      </c>
-      <c r="I22">
-        <v>3.75</v>
-      </c>
-      <c r="K22">
-        <f t="shared" si="0"/>
-        <v>292.96875</v>
-      </c>
-      <c r="L22">
-        <f t="shared" si="1"/>
-        <v>360</v>
-      </c>
-      <c r="M22">
-        <f t="shared" si="2"/>
-        <v>180</v>
-      </c>
-      <c r="N22">
-        <f t="shared" si="3"/>
-        <v>450</v>
-      </c>
-      <c r="R22" t="s">
-        <v>15</v>
-      </c>
-      <c r="S22">
-        <v>1</v>
-      </c>
-      <c r="T22" t="s">
-        <v>66</v>
-      </c>
-      <c r="V22" t="s">
-        <v>24</v>
-      </c>
-      <c r="W22" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="23" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
-        <v>38</v>
-      </c>
-      <c r="B23">
-        <f t="shared" si="4"/>
-        <v>303.75</v>
-      </c>
-      <c r="C23">
-        <v>5</v>
-      </c>
-      <c r="E23">
-        <v>110</v>
-      </c>
-      <c r="F23">
-        <f t="shared" si="5"/>
-        <v>2.44140625</v>
-      </c>
-      <c r="G23">
-        <v>3</v>
-      </c>
-      <c r="H23">
-        <v>3.75</v>
-      </c>
-      <c r="I23">
-        <v>1.5</v>
-      </c>
-      <c r="K23">
-        <f t="shared" si="0"/>
-        <v>268.5546875</v>
-      </c>
-      <c r="L23">
-        <f t="shared" si="1"/>
-        <v>330</v>
-      </c>
-      <c r="M23">
-        <f t="shared" si="2"/>
-        <v>412.5</v>
-      </c>
-      <c r="N23">
-        <f t="shared" si="3"/>
-        <v>165</v>
-      </c>
-      <c r="R23" t="s">
-        <v>21</v>
-      </c>
-      <c r="S23">
-        <v>1</v>
-      </c>
-      <c r="T23" t="s">
-        <v>66</v>
-      </c>
-      <c r="V23" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
-        <v>41</v>
-      </c>
-      <c r="B24">
-        <f t="shared" si="4"/>
-        <v>303.75</v>
-      </c>
-      <c r="C24">
-        <v>5</v>
-      </c>
-      <c r="E24">
-        <v>140</v>
-      </c>
-      <c r="F24">
-        <f t="shared" si="5"/>
-        <v>2.44140625</v>
-      </c>
-      <c r="G24">
-        <v>3</v>
-      </c>
-      <c r="H24">
-        <v>1.5</v>
-      </c>
-      <c r="I24">
-        <v>3.75</v>
-      </c>
-      <c r="K24">
-        <f t="shared" si="0"/>
-        <v>341.796875</v>
-      </c>
-      <c r="L24">
-        <f t="shared" si="1"/>
-        <v>420</v>
-      </c>
-      <c r="M24">
-        <f t="shared" si="2"/>
-        <v>210</v>
-      </c>
-      <c r="N24">
-        <f t="shared" si="3"/>
-        <v>525</v>
-      </c>
-    </row>
-    <row r="25" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>42</v>
-      </c>
-      <c r="B25">
-        <f t="shared" si="4"/>
-        <v>303.75</v>
-      </c>
-      <c r="C25">
-        <v>5</v>
-      </c>
-      <c r="E25">
-        <v>125</v>
-      </c>
-      <c r="F25">
-        <f t="shared" si="5"/>
-        <v>2.44140625</v>
-      </c>
-      <c r="G25">
-        <v>3</v>
-      </c>
-      <c r="H25">
-        <v>3.75</v>
-      </c>
-      <c r="I25">
-        <v>1.5</v>
-      </c>
-      <c r="K25">
-        <f t="shared" si="0"/>
-        <v>305.17578125</v>
-      </c>
-      <c r="L25">
-        <f t="shared" si="1"/>
-        <v>375</v>
-      </c>
-      <c r="M25">
-        <f t="shared" si="2"/>
-        <v>468.75</v>
-      </c>
-      <c r="N25">
-        <f t="shared" si="3"/>
-        <v>187.5</v>
-      </c>
-    </row>
-    <row r="26" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A26" t="s">
-        <v>45</v>
-      </c>
-      <c r="B26">
-        <f t="shared" si="4"/>
-        <v>303.75</v>
-      </c>
-      <c r="C26">
-        <v>5</v>
-      </c>
-      <c r="E26">
-        <v>130</v>
-      </c>
-      <c r="F26">
-        <f t="shared" si="5"/>
-        <v>2.44140625</v>
-      </c>
-      <c r="G26">
-        <v>3</v>
-      </c>
-      <c r="H26">
-        <v>1.5</v>
-      </c>
-      <c r="I26">
-        <v>3.75</v>
-      </c>
-      <c r="K26">
-        <f t="shared" si="0"/>
-        <v>317.3828125</v>
-      </c>
-      <c r="L26">
-        <f t="shared" si="1"/>
-        <v>390</v>
-      </c>
-      <c r="M26">
-        <f t="shared" si="2"/>
-        <v>195</v>
-      </c>
-      <c r="N26">
-        <f t="shared" si="3"/>
-        <v>487.5</v>
-      </c>
-    </row>
-    <row r="27" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A27" t="s">
-        <v>35</v>
-      </c>
-      <c r="B27">
-        <f t="shared" si="4"/>
-        <v>455.625</v>
-      </c>
-      <c r="C27">
-        <v>6</v>
-      </c>
-      <c r="E27">
-        <v>120</v>
-      </c>
-      <c r="F27">
-        <f t="shared" si="5"/>
-        <v>3.0517578125</v>
-      </c>
-      <c r="G27">
-        <v>2</v>
-      </c>
-      <c r="H27">
-        <v>3.25</v>
-      </c>
-      <c r="I27">
-        <v>1.25</v>
-      </c>
-      <c r="K27">
-        <f t="shared" si="0"/>
-        <v>366.2109375</v>
-      </c>
-      <c r="L27">
-        <f t="shared" si="1"/>
-        <v>240</v>
-      </c>
-      <c r="M27">
-        <f t="shared" si="2"/>
-        <v>390</v>
-      </c>
-      <c r="N27">
-        <f t="shared" si="3"/>
-        <v>150</v>
-      </c>
-    </row>
-    <row r="28" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
-        <v>38</v>
-      </c>
-      <c r="B28">
-        <f t="shared" si="4"/>
-        <v>455.625</v>
-      </c>
-      <c r="C28">
-        <v>6</v>
-      </c>
-      <c r="E28">
-        <v>110</v>
-      </c>
-      <c r="F28">
-        <f t="shared" si="5"/>
-        <v>3.0517578125</v>
-      </c>
-      <c r="G28">
-        <v>2</v>
-      </c>
-      <c r="H28">
-        <v>1.25</v>
-      </c>
-      <c r="I28">
-        <v>3.75</v>
-      </c>
-      <c r="K28">
-        <f t="shared" si="0"/>
-        <v>335.693359375</v>
-      </c>
-      <c r="L28">
-        <f t="shared" si="1"/>
-        <v>220</v>
-      </c>
-      <c r="M28">
-        <f t="shared" si="2"/>
-        <v>137.5</v>
-      </c>
-      <c r="N28">
-        <f t="shared" si="3"/>
-        <v>412.5</v>
-      </c>
-    </row>
-    <row r="29" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A29" t="s">
-        <v>41</v>
-      </c>
-      <c r="B29">
-        <f t="shared" si="4"/>
-        <v>455.625</v>
-      </c>
-      <c r="C29">
-        <v>6</v>
-      </c>
-      <c r="E29">
-        <v>140</v>
-      </c>
-      <c r="F29">
-        <f t="shared" si="5"/>
-        <v>3.0517578125</v>
-      </c>
-      <c r="G29">
-        <v>2</v>
-      </c>
-      <c r="H29">
-        <v>3.25</v>
-      </c>
-      <c r="I29">
-        <v>1.25</v>
-      </c>
-      <c r="K29">
-        <f t="shared" si="0"/>
-        <v>427.24609375</v>
-      </c>
-      <c r="L29">
-        <f t="shared" si="1"/>
-        <v>280</v>
-      </c>
-      <c r="M29">
-        <f t="shared" si="2"/>
-        <v>455</v>
-      </c>
-      <c r="N29">
-        <f t="shared" si="3"/>
-        <v>175</v>
-      </c>
-    </row>
-    <row r="30" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A30" t="s">
-        <v>42</v>
-      </c>
-      <c r="B30">
-        <f t="shared" si="4"/>
-        <v>455.625</v>
-      </c>
-      <c r="C30">
-        <v>6</v>
-      </c>
-      <c r="E30">
-        <v>125</v>
-      </c>
-      <c r="F30">
-        <f t="shared" si="5"/>
-        <v>3.0517578125</v>
-      </c>
-      <c r="G30">
-        <v>2</v>
-      </c>
-      <c r="H30">
-        <v>1.25</v>
-      </c>
-      <c r="I30">
-        <v>3.75</v>
-      </c>
-      <c r="K30">
-        <f t="shared" si="0"/>
-        <v>381.4697265625</v>
-      </c>
-      <c r="L30">
-        <f t="shared" si="1"/>
-        <v>250</v>
-      </c>
-      <c r="M30">
-        <f t="shared" si="2"/>
-        <v>156.25</v>
-      </c>
-      <c r="N30">
-        <f t="shared" si="3"/>
-        <v>468.75</v>
-      </c>
-    </row>
-    <row r="31" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A31" t="s">
-        <v>45</v>
-      </c>
-      <c r="B31">
-        <f t="shared" si="4"/>
-        <v>455.625</v>
-      </c>
-      <c r="C31">
-        <v>6</v>
-      </c>
-      <c r="E31">
-        <v>130</v>
-      </c>
-      <c r="F31">
-        <f t="shared" si="5"/>
-        <v>3.0517578125</v>
-      </c>
-      <c r="G31">
-        <v>2</v>
-      </c>
-      <c r="H31">
-        <v>3.25</v>
-      </c>
-      <c r="I31">
-        <v>1.25</v>
-      </c>
-      <c r="K31">
-        <f t="shared" si="0"/>
-        <v>396.728515625</v>
-      </c>
-      <c r="L31">
-        <f t="shared" si="1"/>
-        <v>260</v>
-      </c>
-      <c r="M31">
-        <f t="shared" si="2"/>
-        <v>422.5</v>
-      </c>
-      <c r="N31">
-        <f t="shared" si="3"/>
-        <v>162.5</v>
-      </c>
-    </row>
-    <row r="32" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A32" t="s">
-        <v>35</v>
-      </c>
-      <c r="B32">
-        <f t="shared" si="4"/>
-        <v>683.4375</v>
-      </c>
-      <c r="C32">
-        <v>7</v>
-      </c>
-      <c r="E32">
-        <v>120</v>
-      </c>
-      <c r="F32">
-        <f t="shared" si="5"/>
-        <v>3.814697265625</v>
-      </c>
-      <c r="G32">
-        <v>0.5</v>
-      </c>
-      <c r="H32">
-        <v>1.5</v>
-      </c>
-      <c r="I32">
-        <v>2</v>
-      </c>
-      <c r="K32">
-        <f t="shared" si="0"/>
-        <v>457.763671875</v>
-      </c>
-      <c r="L32">
-        <f t="shared" si="1"/>
-        <v>60</v>
-      </c>
-      <c r="M32">
-        <f t="shared" si="2"/>
-        <v>180</v>
-      </c>
-      <c r="N32">
-        <f t="shared" si="3"/>
-        <v>240</v>
-      </c>
-    </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A33" t="s">
-        <v>38</v>
-      </c>
-      <c r="B33">
-        <f t="shared" si="4"/>
-        <v>683.4375</v>
-      </c>
-      <c r="C33">
-        <v>7</v>
-      </c>
-      <c r="E33">
-        <v>110</v>
-      </c>
-      <c r="F33">
-        <f t="shared" si="5"/>
-        <v>3.814697265625</v>
-      </c>
-      <c r="G33">
-        <v>0.5</v>
-      </c>
-      <c r="H33">
-        <v>2</v>
-      </c>
-      <c r="I33">
-        <v>1.5</v>
-      </c>
-      <c r="K33">
-        <f t="shared" si="0"/>
-        <v>419.61669921875</v>
-      </c>
-      <c r="L33">
-        <f t="shared" si="1"/>
-        <v>55</v>
-      </c>
-      <c r="M33">
-        <f t="shared" si="2"/>
-        <v>220</v>
-      </c>
-      <c r="N33">
-        <f t="shared" si="3"/>
-        <v>165</v>
-      </c>
-    </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A34" t="s">
-        <v>41</v>
-      </c>
-      <c r="B34">
-        <f t="shared" si="4"/>
-        <v>683.4375</v>
-      </c>
-      <c r="C34">
-        <v>7</v>
-      </c>
-      <c r="E34">
-        <v>140</v>
-      </c>
-      <c r="F34">
-        <f t="shared" si="5"/>
-        <v>3.814697265625</v>
-      </c>
-      <c r="G34">
-        <v>0.5</v>
-      </c>
-      <c r="H34">
-        <v>1.5</v>
-      </c>
-      <c r="I34">
-        <v>2</v>
-      </c>
-      <c r="K34">
-        <f t="shared" si="0"/>
-        <v>534.0576171875</v>
-      </c>
-      <c r="L34">
-        <f t="shared" si="1"/>
-        <v>70</v>
-      </c>
-      <c r="M34">
-        <f t="shared" si="2"/>
-        <v>210</v>
-      </c>
-      <c r="N34">
-        <f t="shared" si="3"/>
-        <v>280</v>
-      </c>
-    </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A35" t="s">
-        <v>42</v>
-      </c>
-      <c r="B35">
-        <f t="shared" si="4"/>
-        <v>683.4375</v>
-      </c>
-      <c r="C35">
-        <v>7</v>
-      </c>
-      <c r="E35">
-        <v>125</v>
-      </c>
-      <c r="F35">
-        <f t="shared" si="5"/>
-        <v>3.814697265625</v>
-      </c>
-      <c r="G35">
-        <v>0.5</v>
-      </c>
-      <c r="H35">
-        <v>2</v>
-      </c>
-      <c r="I35">
-        <v>1.5</v>
-      </c>
-      <c r="K35">
-        <f t="shared" si="0"/>
-        <v>476.837158203125</v>
-      </c>
-      <c r="L35">
-        <f t="shared" si="1"/>
-        <v>62.5</v>
-      </c>
-      <c r="M35">
-        <f t="shared" si="2"/>
-        <v>250</v>
-      </c>
-      <c r="N35">
-        <f t="shared" si="3"/>
-        <v>187.5</v>
-      </c>
-    </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A36" t="s">
-        <v>45</v>
-      </c>
-      <c r="B36">
-        <f t="shared" si="4"/>
-        <v>683.4375</v>
-      </c>
-      <c r="C36">
-        <v>7</v>
-      </c>
-      <c r="E36">
-        <v>130</v>
-      </c>
-      <c r="F36">
-        <f t="shared" si="5"/>
-        <v>3.814697265625</v>
-      </c>
-      <c r="G36">
-        <v>0.5</v>
-      </c>
-      <c r="H36">
-        <v>1.5</v>
-      </c>
-      <c r="I36">
-        <v>2</v>
-      </c>
-      <c r="K36">
-        <f t="shared" si="0"/>
-        <v>495.91064453125</v>
-      </c>
-      <c r="L36">
-        <f t="shared" si="1"/>
-        <v>65</v>
-      </c>
-      <c r="M36">
-        <f t="shared" si="2"/>
-        <v>195</v>
-      </c>
-      <c r="N36">
-        <f t="shared" si="3"/>
-        <v>260</v>
-      </c>
-    </row>
-  </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="V1:W38">
-    <sortCondition ref="V1:V38"/>
-  </sortState>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF4FBAAB-7974-4973-8D78-679F51B9070B}">
   <dimension ref="A1:C36"/>
   <sheetViews>
-    <sheetView topLeftCell="A26" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
       <selection activeCell="E71" sqref="E71"/>
     </sheetView>
   </sheetViews>
@@ -4770,12 +2796,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9C5C00E-AC49-4C4D-BDBC-8EA5439513DF}">
   <dimension ref="A1:C36"/>
   <sheetViews>
-    <sheetView topLeftCell="A26" workbookViewId="0">
-      <selection activeCell="A37" sqref="A37:C71"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5181,7 +3207,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B471AB94-3C98-4E37-8030-492F442CFE7E}">
   <dimension ref="A1:C36"/>
   <sheetViews>
@@ -5592,7 +3618,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45F28CE2-EADE-4E9C-9DC8-4E6E9DE9EA22}">
   <dimension ref="A1:C36"/>
   <sheetViews>
